--- a/data/3.meta_data/basic_info/25_04_30_basic_info.xlsx
+++ b/data/3.meta_data/basic_info/25_04_30_basic_info.xlsx
@@ -432,7 +432,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>review_topic_main</t>
+          <t>review_topics</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>bf_frame</t>
+          <t>trait_frame</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>change</t>
+          <t>changegoals; skilltraitdifferences</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -702,12 +702,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>normativechange</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>theoretical</t>
+          <t>assessment; theorydevelopment</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -858,12 +858,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>positiveschooloutcomes</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>prosociality</t>
+          <t>proenvironment</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">

--- a/data/3.meta_data/basic_info/25_04_30_basic_info.xlsx
+++ b/data/3.meta_data/basic_info/25_04_30_basic_info.xlsx
@@ -530,9 +530,14 @@
           <t>0061</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0061</t>
+          <t>0061a</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -697,7 +702,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>noNewData</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -707,7 +712,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>review</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -808,9 +813,14 @@
           <t>0068</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0068</t>
+          <t>0068a</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -869,6 +879,50 @@
       <c r="P5" t="inlineStr">
         <is>
           <t>gerardo.pellegrino@phd.unipd.it</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>https://osf.io/8thsg/</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="T5">
+        <v>59</v>
+      </c>
+      <c r="U5">
+        <v>16.65</v>
+      </c>
+      <c r="V5">
+        <v>350</v>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>school_age</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>not_clinical</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>bessi45</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>short</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -886,9 +940,14 @@
           <t>0070</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0070</t>
+          <t>0070a</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -947,6 +1006,50 @@
       <c r="P6" t="inlineStr">
         <is>
           <t>feraco.tommaso@unipd.it</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.17605/OSF.IO/U3MNY</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="T6">
+        <v>55</v>
+      </c>
+      <c r="U6">
+        <v>16.18</v>
+      </c>
+      <c r="V6">
+        <v>702</v>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>school_age</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>not_clinical</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>bessi45</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>short</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">

--- a/data/3.meta_data/basic_info/25_04_30_basic_info.xlsx
+++ b/data/3.meta_data/basic_info/25_04_30_basic_info.xlsx
@@ -585,7 +585,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>changegoals; skilltraitdifferences</t>
+          <t>changegoals; skilltraitdifferences; skillmalleabilitybelief</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
